--- a/DOC_ウタネ回覧/JA回覧_入力データ仕様_20251106.xlsx
+++ b/DOC_ウタネ回覧/JA回覧_入力データ仕様_20251106.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\永井秀和\Documents\workspace\rvbell_app\給与計算検定入力ソフト_20251015\DOC_ウタネ回覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\永井秀和\Documents\workspace\rvbell_app\temp_ウタネ最終_20251202\DOC_ウタネ回覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E7D029-F5E8-4332-B552-784766BE8C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A05FB71-8641-4F8E-AE99-8E457F0B88CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="228" windowWidth="18396" windowHeight="13008" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24600" yWindow="720" windowWidth="20676" windowHeight="12108" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="データ入力項目" sheetId="1" r:id="rId1"/>
@@ -6466,9 +6466,7 @@
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
